--- a/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>b661ae7f-93ca-4b52-9a0e-ddfb5788d027</t>
+    <t>0ca51d71-8c48-4faf-9168-b1b4938ee9a2</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>0ca51d71-8c48-4faf-9168-b1b4938ee9a2</t>
+    <t>116cf1c7-6bb8-47e0-b236-4d92009fe71c</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>116cf1c7-6bb8-47e0-b236-4d92009fe71c</t>
+    <t>a7ea9e39-36bf-4f7e-a37b-d6be3c769e2c</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>a7ea9e39-36bf-4f7e-a37b-d6be3c769e2c</t>
+    <t>9768cb40-aa96-4f79-b064-3d3b8f34fa7d</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>9768cb40-aa96-4f79-b064-3d3b8f34fa7d</t>
+    <t>1fd2682f-8f87-4e09-b811-26c2f3a77fec</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>1fd2682f-8f87-4e09-b811-26c2f3a77fec</t>
+    <t>16480b94-1345-4c00-be30-036bc880ef63</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>
